--- a/doors-detector/results/house2.xlsx
+++ b/doors-detector/results/house2.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.8092319426247945</v>
+        <v>0.8192913843138337</v>
       </c>
       <c r="F2" t="n">
         <v>5290</v>
       </c>
       <c r="G2" t="n">
-        <v>4528</v>
+        <v>4561</v>
       </c>
       <c r="H2" t="n">
-        <v>762</v>
+        <v>729</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2a</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.214303876854798</v>
+        <v>0.2244586273016127</v>
       </c>
       <c r="F3" t="n">
         <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +550,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2b</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.6309611019992242</v>
+        <v>0.5493390208084464</v>
       </c>
       <c r="F4" t="n">
         <v>155</v>
       </c>
       <c r="G4" t="n">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="H4" t="n">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +582,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2c</t>
+          <t>2a</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7845000506655277</v>
+        <v>0.7864110550985476</v>
       </c>
       <c r="F5" t="n">
         <v>5290</v>
@@ -614,7 +614,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2a</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6348835890631557</v>
+        <v>0.6856746080258511</v>
       </c>
       <c r="F6" t="n">
         <v>30</v>
       </c>
       <c r="G6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.7891263116206638</v>
+        <v>0.7743938655685867</v>
       </c>
       <c r="F7" t="n">
         <v>155</v>
       </c>
       <c r="G7" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H7" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.8203510142740007</v>
+        <v>0.8309877676069819</v>
       </c>
       <c r="F8" t="n">
         <v>5290</v>
       </c>
       <c r="G8" t="n">
-        <v>4623</v>
+        <v>4647</v>
       </c>
       <c r="H8" t="n">
-        <v>667</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9">
@@ -710,7 +710,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2c</t>
+          <t>2b</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.8014343041782068</v>
+        <v>0.8074963248126666</v>
       </c>
       <c r="F9" t="n">
         <v>30</v>
@@ -728,7 +728,7 @@
         <v>26</v>
       </c>
       <c r="H9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -742,25 +742,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>2b</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E10" t="n">
-        <v>0.8487038222195386</v>
+        <v>0.8204379725365929</v>
       </c>
       <c r="F10" t="n">
         <v>155</v>
       </c>
       <c r="G10" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H10" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -774,7 +774,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2a</t>
+          <t>2c</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8007874671216951</v>
+        <v>0.8006306391761587</v>
       </c>
       <c r="F11" t="n">
         <v>5290</v>
       </c>
       <c r="G11" t="n">
-        <v>4560</v>
+        <v>4554</v>
       </c>
       <c r="H11" t="n">
-        <v>730</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2b</t>
+          <t>2c</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.7438573232323235</v>
+        <v>0.8084249084249086</v>
       </c>
       <c r="F12" t="n">
         <v>30</v>
       </c>
       <c r="G12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.8781325507060807</v>
+        <v>0.8696227217355494</v>
       </c>
       <c r="F13" t="n">
         <v>155</v>
       </c>
       <c r="G13" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H13" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
